--- a/src/api/data/我们的优势.xlsx
+++ b/src/api/data/我们的优势.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hongsheng3\src\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>zh</t>
   </si>
@@ -74,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我们的目标是以最佳价格为客户提供最佳解决方案。为达成这一目标，集团团队成功的行为关键是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>渴望胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,6 +92,121 @@
   </si>
   <si>
     <t>我们的质量、环保和安全证书证实了我们的质量承诺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十多年間，鴻昇集團意味著</t>
+  </si>
+  <si>
+    <t>自創始起，員工一直被視為我們最珍貴的資產，直至今日。公司持續培養和培訓合格人才。借此，我們為客戶保有專有技術並維護了具有競爭力的創新型合夥人。</t>
+  </si>
+  <si>
+    <t>勝任能力</t>
+  </si>
+  <si>
+    <t>快速反應</t>
+  </si>
+  <si>
+    <t>In the past more than 30 years, Hongsheng group meant</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Rapid reaction</t>
+  </si>
+  <si>
+    <t>靈活應變</t>
+  </si>
+  <si>
+    <t>信賴可靠</t>
+  </si>
+  <si>
+    <t>價格最優</t>
+  </si>
+  <si>
+    <t>設計支持及整體解決方案</t>
+  </si>
+  <si>
+    <t>七大覈心指南</t>
+  </si>
+  <si>
+    <t>Flexibly strain</t>
+  </si>
+  <si>
+    <t>Trustworthy</t>
+  </si>
+  <si>
+    <t>Optimal price</t>
+  </si>
+  <si>
+    <t>Design support and overall solution</t>
+  </si>
+  <si>
+    <t>Seven core guidelines</t>
+  </si>
+  <si>
+    <t>管理團隊</t>
+  </si>
+  <si>
+    <t>Management team</t>
+  </si>
+  <si>
+    <t>渴望勝利</t>
+  </si>
+  <si>
+    <t>勇於承擔</t>
+  </si>
+  <si>
+    <t>協力超越</t>
+  </si>
+  <si>
+    <t>認證證書</t>
+  </si>
+  <si>
+    <t>我們的質量、環保和安全證書證實了我們的質量承諾。</t>
+  </si>
+  <si>
+    <t>Longing for victory</t>
+  </si>
+  <si>
+    <t>Since its beginning, employees have been regarded as our most valuable assets until today. The company continues to train and train qualified personnel. In this way, we maintain proprietary technology for our customers and maintain a competitive innovative partner.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻昇集團面對員工、客戶和供應商的七大核心指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The seven core guides for Hongsheng group to face employees, customers and suppliers.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的目标是以最优惠的价格为客户提供最佳解决方案。为达成这一目标，集团团队成功的行为关键是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的目標是以最優惠的價格為客戶提供最佳解決方案。為達成這一目標，集團團隊成功的行為關鍵是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our goal is to provide the best solution for our customers with the best price. To achieve this goal, the key action of our team is</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take responsibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concord transcendence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our quality, environment and safety certification confirms our quality commitment.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -112,6 +224,7 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -125,6 +238,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -262,7 +393,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -282,9 +413,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +435,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,18 +1749,18 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1631,151 +1774,219 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6" ht="99" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" ht="31.35" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:6" ht="27.4" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:6" ht="60" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="18" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1786,4 +1997,28 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F8:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:6">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/api/data/我们的优势.xlsx
+++ b/src/api/data/我们的优势.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -31,200 +26,211 @@
     <t>en</t>
   </si>
   <si>
-    <t>三十多年间，鸿昇集团意味着</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自创始起，员工一直被视为我们最珍贵的资产，直至今日。公司持续培养和培训合格人才。借此，我们为客户保有专有技术并维护了具有竞争力的创新型合伙人。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜任能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>鸿昇集团面对员工、客户和供应商的七大核心指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协力超越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the past more than 30 years, Hongsheng group meant</t>
+  </si>
+  <si>
+    <t>靈活應變</t>
+  </si>
+  <si>
+    <t>Seven core guidelines</t>
+  </si>
+  <si>
+    <t>管理團隊</t>
+  </si>
+  <si>
+    <t>Management team</t>
+  </si>
+  <si>
+    <t>渴望勝利</t>
+  </si>
+  <si>
+    <t>勇於承擔</t>
+  </si>
+  <si>
+    <t>協力超越</t>
+  </si>
+  <si>
+    <t>認證證書</t>
+  </si>
+  <si>
+    <t>Longing for victory</t>
+  </si>
+  <si>
+    <t>Since its beginning, employees have been regarded as our most valuable assets until today. The company continues to train and train qualified personnel. In this way, we maintain proprietary technology for our customers and maintain a competitive innovative partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灵活应变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信赖可靠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格最优</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设计支持及整体解决方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七大核心指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿昇集团面对员工、客户和供应商的七大核心指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻昇集團面對員工、客戶和供應商的七大核心指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The seven core guides for Hongsheng group to face employees, customers and suppliers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理团队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的目标是以最优惠的价格为客户提供最佳解决方案。为达成这一目标，集团团队成功的行为关键是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的目標是以最優惠的價格為客戶提供最佳解決方案。為達成這一目標，集團團隊成功的行為關鍵是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our goal is to provide the best solution for our customers with the best price. To achieve this goal, the key action of our team is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>渴望胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>勇于承担</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>协力超越</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take responsibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concord transcendence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>认证证书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的质量、环保和安全证书证实了我们的质量承诺。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十多年間，鴻昇集團意味著</t>
-  </si>
-  <si>
-    <t>自創始起，員工一直被視為我們最珍貴的資產，直至今日。公司持續培養和培訓合格人才。借此，我們為客戶保有專有技術並維護了具有競爭力的創新型合夥人。</t>
-  </si>
-  <si>
-    <t>勝任能力</t>
-  </si>
-  <si>
-    <t>快速反應</t>
-  </si>
-  <si>
-    <t>In the past more than 30 years, Hongsheng group meant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our quality, environment and safety certification confirms our quality commitment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三十餘載，專業團隊，優質服務，協作共贏 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十余载，专业团队，优质服务，协作共赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Competence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自集团创始以来，我们始终坚持以最佳价格为客户提供最优质的解决方案。以“尊重、诚信、信赖、效率、坦率沟通、质量保证和环保、健康与安全意识”七大核心为指导对待所有合作伙伴，在全集团打造一支素质高、能力强、共进退、负责任的工作管理团队。集团的每一位成员都被视为我们最珍贵的资产。直至今日，公司仍持续加大员工培训力度，重视提高员工综合能力，不断发掘和培养优秀人才，以此最终成为客户最具专业实力和保持创新竞争力的合作伙伴。风雨同舟三十余载，鸿昇集团旗下已拥有多家通过国际认证的企业和众多国际知名合作公司，可在全球范围内为客户提供强有力的技术支持和专业解决方案的保障。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自集團创始以來，我們始終堅持以最佳價格為客戶提供最優質的解決方案。以“尊重、誠信 、信賴、效率、坦率溝通、質量保證和環保、健康與安全意識”七大核心為指導對待所有合作夥伴，在全集團建設打造一支素質高、能力強、共進退、負責任的工作管理團隊。
+    集團的每一位成員都被視為我們最珍貴的資產。直至今日，公司仍然持續加大員工培訓力度，重視提高員工綜合能力，不斷發掘和培養優秀人才，以此最終成為客戶最具專業實力和保持創新競爭力的合作夥伴。
+風雨同舟三十餘載，鴻昇集團旗下已擁有多家通過國際認證的集團和眾多國際知名合作公司，可在全球範圍內為客戶提供強有力的技術支持和專業解決方案的保障。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業實力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rapid reaction</t>
-  </si>
-  <si>
-    <t>靈活應變</t>
-  </si>
-  <si>
-    <t>信賴可靠</t>
-  </si>
-  <si>
-    <t>價格最優</t>
-  </si>
-  <si>
-    <t>設計支持及整體解決方案</t>
-  </si>
-  <si>
-    <t>七大覈心指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flexibly strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Trustworthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得信賴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Optimal price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最優定價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Design support and overall solution</t>
-  </si>
-  <si>
-    <t>Seven core guidelines</t>
-  </si>
-  <si>
-    <t>管理團隊</t>
-  </si>
-  <si>
-    <t>Management team</t>
-  </si>
-  <si>
-    <t>渴望勝利</t>
-  </si>
-  <si>
-    <t>勇於承擔</t>
-  </si>
-  <si>
-    <t>協力超越</t>
-  </si>
-  <si>
-    <t>認證證書</t>
-  </si>
-  <si>
-    <t>我們的質量、環保和安全證書證實了我們的質量承諾。</t>
-  </si>
-  <si>
-    <t>Longing for victory</t>
-  </si>
-  <si>
-    <t>Since its beginning, employees have been regarded as our most valuable assets until today. The company continues to train and train qualified personnel. In this way, we maintain proprietary technology for our customers and maintain a competitive innovative partner.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鴻昇集團面對員工、客戶和供應商的七大核心指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The seven core guides for Hongsheng group to face employees, customers and suppliers.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的目标是以最优惠的价格为客户提供最佳解决方案。为达成这一目标，集团团队成功的行为关键是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們的目標是以最優惠的價格為客戶提供最佳解決方案。為達成這一目標，集團團隊成功的行為關鍵是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Our goal is to provide the best solution for our customers with the best price. To achieve this goal, the key action of our team is</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Take responsibility</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concord transcendence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certification</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Our quality, environment and safety certification confirms our quality commitment.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設計及整體解決方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业实力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得信赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七大核心指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量、环保和安全等专业机构的认可，进一步验证我们的质量承诺和为之付出的努力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質量、環保和安全等專業機構的認可，進一步驗證我們的質量承諾和為之付出的努力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -233,29 +239,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -393,63 +404,66 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +570,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,22 +1756,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="53.140625" style="6" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="6" customWidth="1"/>
+    <col min="257" max="16384" width="16.28515625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
@@ -1775,221 +1788,221 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="99" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>4</v>
+    <row r="3" spans="1:6" ht="174.75" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="31.35" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
+      <c r="A4" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
+      <c r="A5" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
+      <c r="A6" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
+      <c r="A7" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
+      <c r="A8" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
+      <c r="A9" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
+      <c r="A10" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>12</v>
+      <c r="A11" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>13</v>
+      <c r="A12" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>47</v>
+      <c r="A13" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
+      <c r="A15" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>16</v>
+      <c r="A16" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
+      <c r="A17" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>18</v>
+      <c r="A18" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2000,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F8:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2011,13 +2024,13 @@
   </cols>
   <sheetData>
     <row r="8" spans="6:6">
-      <c r="F8" s="18"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="18"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/src/api/data/我们的优势.xlsx
+++ b/src/api/data/我们的优势.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8793273-AEF6-4F54-BB9A-73908A9D24E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
@@ -80,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鴻昇集團面對員工、客戶和供應商的七大核心指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The seven core guides for Hongsheng group to face employees, customers and suppliers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理团队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,88 +143,94 @@
   </si>
   <si>
     <t>自集团创始以来，我们始终坚持以最佳价格为客户提供最优质的解决方案。以“尊重、诚信、信赖、效率、坦率沟通、质量保证和环保、健康与安全意识”七大核心为指导对待所有合作伙伴，在全集团打造一支素质高、能力强、共进退、负责任的工作管理团队。集团的每一位成员都被视为我们最珍贵的资产。直至今日，公司仍持续加大员工培训力度，重视提高员工综合能力，不断发掘和培养优秀人才，以此最终成为客户最具专业实力和保持创新竞争力的合作伙伴。风雨同舟三十余载，鸿昇集团旗下已拥有多家通过国际认证的企业和众多国际知名合作公司，可在全球范围内为客户提供强有力的技术支持和专业解决方案的保障。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業實力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid reaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexibly strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trustworthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得信賴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最優定價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design support and overall solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設計及整體解決方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业实力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得信赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七大核心指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量、环保和安全等专业机构的认可，进一步验证我们的质量承诺和为之付出的努力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質量、環保和安全等專業機構的認可，進一步驗證我們的質量承諾和為之付出的努力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自集團创始以來，我們始終堅持以最佳價格為客戶提供最優質的解決方案。以“尊重、誠信 、信賴、效率、坦率溝通、質量保證和環保、健康與安全意識”七大核心為指導對待所有合作夥伴，在全集團建設打造一支素質高、能力強、共進退、負責任的工作管理團隊。
     集團的每一位成員都被視為我們最珍貴的資產。直至今日，公司仍然持續加大員工培訓力度，重視提高員工綜合能力，不斷發掘和培養優秀人才，以此最終成為客戶最具專業實力和保持創新競爭力的合作夥伴。
-風雨同舟三十餘載，鴻昇集團旗下已擁有多家通過國際認證的集團和眾多國際知名合作公司，可在全球範圍內為客戶提供強有力的技術支持和專業解決方案的保障。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專業實力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rapid reaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超高效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flexibly strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trustworthy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得信賴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最優定價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design support and overall solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計及整體解決方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业实力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超高效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值得信赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最优定价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七大核心指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量、环保和安全等专业机构的认可，进一步验证我们的质量承诺和为之付出的努力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>質量、環保和安全等專業機構的認可，進一步驗證我們的質量承諾和為之付出的努力</t>
+風雨同舟三十餘載，鸿昇集團旗下已擁有多家通過國際認證的集團和眾多國際知名合作公司，可在全球範圍內為客戶提供強有力的技術支持和專業解決方案的保障。</t>
+  </si>
+  <si>
+    <t>鸿昇集團面對員工、客戶和供應商的七大核心指南</t>
+  </si>
+  <si>
+    <t>The seven core guides for Hung Shang group to face employees, customers and suppliers.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -570,7 +574,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,7 +596,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1756,24 +1760,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="53.140625" style="6" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="6" customWidth="1"/>
-    <col min="257" max="16384" width="16.28515625" style="7"/>
+    <col min="1" max="3" width="53.1796875" style="6" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="6" customWidth="1"/>
+    <col min="257" max="16384" width="16.26953125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1787,12 +1791,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1801,12 +1805,12 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="174.75" customHeight="1">
+    <row r="3" spans="1:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -1815,35 +1819,35 @@
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="31.35" customHeight="1">
+    <row r="4" spans="1:6" ht="31.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="27.4" customHeight="1">
+    <row r="5" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="27.4" customHeight="1">
+    <row r="6" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
@@ -1851,60 +1855,60 @@
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="27.4" customHeight="1">
+    <row r="7" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="27.4" customHeight="1">
+    <row r="8" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1">
+    <row r="9" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="27.4" customHeight="1">
+    <row r="10" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>7</v>
@@ -1913,20 +1917,20 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="42.75" customHeight="1">
+    <row r="11" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>8</v>
@@ -1935,20 +1939,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" customHeight="1">
+    <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>10</v>
@@ -1957,18 +1961,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" customHeight="1">
+    <row r="15" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" customHeight="1">
+    <row r="16" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
@@ -1976,29 +1980,29 @@
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42.75" customHeight="1">
+    <row r="17" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42.75" customHeight="1">
+    <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2013,20 +2017,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="F8:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:6">
+    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="6:6">
+    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
   </sheetData>
